--- a/biology/Médecine/Académie_de_médecine_Gueorguievski/Académie_de_médecine_Gueorguievski.xlsx
+++ b/biology/Médecine/Académie_de_médecine_Gueorguievski/Académie_de_médecine_Gueorguievski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_m%C3%A9decine_Gueorguievski</t>
+          <t>Académie_de_médecine_Gueorguievski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'académie de médecine Gueorguievski (Медици́нская акаде́мия и́мени С. И. Гео́ргиевского) (officiellement — académie de médecine Gueorguievski de l'établissement d'enseignement supérieur autonome de l'État fédéral « Université fédérale criméenne Vernardski »  (Медицинская академия имени С. И. Георгиевского Федерального государственного автономного образовательного учреждения высшего образования «Крымский федеральный университет имени В.И. Вернадского»), autrefois université nationale de médecine de Crimée Gueorguievski (Крымский государственный медицинский университет имени С.И. Георгиевского, et institut de médecine de Crimée (Крымский медицинский институт), est un établissement d'enseignement supérieur au sein de l'université fédérale de Crimée Vernardski situé à Simféropol en Crimée, spécialisé dans l'enseignement  de la médecine.  
-Elle a été formée en 2015 par les autorités russes de la péninsule de Crimée en accord avec le gouvernement fédéral sur la base de l'université de médecine Gueorguievski de Crimée, fondée en 1931 comme institut de médecine de Crimée[1].
+Elle a été formée en 2015 par les autorités russes de la péninsule de Crimée en accord avec le gouvernement fédéral sur la base de l'université de médecine Gueorguievski de Crimée, fondée en 1931 comme institut de médecine de Crimée.
 L'établissement doit son nom au professeur Sergueï Ivanovitch Gueorguievski (1898-1974), docteur en physiopathologie. 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_m%C3%A9decine_Gueorguievski</t>
+          <t>Académie_de_médecine_Gueorguievski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis septembre 2018, l'académie compte 6 facultés: la première faculté de médecine, la deuxième faculté de médecine, la médecine dentaire, la pharmacie, la médecine internationale et la médecine avancée. Le nombre de départements est de 56. L'académie a également un département préparatoire, 38 bases cliniques, 16 établissements affiliés.
-Son directeur est le professeur Evgueni Sergueïevitch Kroutikov, docteur en néphrologie. L'établissement accueille plus de 4 000 étudiants dont environ 1 700 étrangers[2].
+Son directeur est le professeur Evgueni Sergueïevitch Kroutikov, docteur en néphrologie. L'établissement accueille plus de 4 000 étudiants dont environ 1 700 étrangers.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_m%C3%A9decine_Gueorguievski</t>
+          <t>Académie_de_médecine_Gueorguievski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Chaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anatomie normale
 Anatomie pathologique avec cours de dissection
@@ -612,7 +628,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_m%C3%A9decine_Gueorguievski</t>
+          <t>Académie_de_médecine_Gueorguievski</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,13 +646,15 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-			5-7 boulevard Lenina classé[3].
+			5-7 boulevard Lenina classé.
 			Le stade.
-			Monument aux employés classé[4].
-			Bâtiment de Pyrohov classé[5].
+			Monument aux employés classé.
+			Bâtiment de Pyrohov classé.
 </t>
         </is>
       </c>
